--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Embedding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807A337B-0B3C-478A-8531-1F21581974FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="8295" yWindow="-11085" windowWidth="14400" windowHeight="8715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>檔名判斷</t>
   </si>
@@ -95,23 +104,78 @@
   </si>
   <si>
     <t>夜光細節</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>商品分類</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運動鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,36 +183,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -338,140 +412,165 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Embedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807A337B-0B3C-478A-8531-1F21581974FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113EC2EF-4A9C-4FEC-B4E1-9E19D3A97CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="-11085" windowWidth="14400" windowHeight="8715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>檔名判斷</t>
   </si>
@@ -117,10 +117,6 @@
       </rPr>
       <t>商品分類</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>運動鞋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +421,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -490,9 +486,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>

--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Embedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113EC2EF-4A9C-4FEC-B4E1-9E19D3A97CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16DA49A-AE19-47B2-A67A-950B5D085D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>檔名判斷</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>_TPP_</t>
-  </si>
-  <si>
-    <t>直立正面</t>
   </si>
   <si>
     <t>_BT_</t>
@@ -119,12 +116,97 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>_FC_</t>
+  </si>
+  <si>
+    <t>_BC_</t>
+  </si>
+  <si>
+    <t>_FSL_</t>
+  </si>
+  <si>
+    <t>斜正面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_</t>
+  </si>
+  <si>
+    <t>內部照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H1_</t>
+  </si>
+  <si>
+    <t>細節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H2_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_Torso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_eCom</t>
+  </si>
+  <si>
+    <t>三合一外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙面外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面,平拍正面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背面,平拍背面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直立正面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_B_Model_</t>
+  </si>
+  <si>
+    <t>模特背面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_F_Model_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特正面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_W_Model_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特側面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,6 +252,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -194,12 +290,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -418,10 +516,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -431,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -469,98 +567,189 @@
         <v>8</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Embedding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBA6154-8826-427F-897A-86D3B4085B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC109163-78E4-554A-A7E9-CE8D0EECE0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>檔名判斷</t>
   </si>
@@ -89,9 +89,6 @@
     <t>_D1_</t>
   </si>
   <si>
-    <t>細節</t>
-  </si>
-  <si>
     <t>_D2_</t>
   </si>
   <si>
@@ -227,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_Fex__</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_Bex_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,20 +348,6 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>細節</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
       <t>平拍正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +677,22 @@
   </si>
   <si>
     <t>夜光置中側面,夜光正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fex_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,14 +1047,14 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" style="6"/>
-    <col min="3" max="3" width="15.36328125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" style="6"/>
+    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -1067,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
@@ -1083,7 +1078,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1104,7 +1099,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -1121,7 +1116,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -1135,10 +1130,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -1174,270 +1169,270 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.5" customHeight="1"/>

--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC109163-78E4-554A-A7E9-CE8D0EECE0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664AACBA-B484-4D9C-B533-A675387C71AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1510" yWindow="330" windowWidth="19250" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>檔名判斷</t>
   </si>
@@ -160,72 +160,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>_W_Model_</t>
+  </si>
+  <si>
+    <t>_SC_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Sid_Torso_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H3_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_Model_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SUBV_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SUPS_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如沒有</t>
-    </r>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>包包</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_W_Model_</t>
-    </r>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>雙面外套</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>則編這張</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_W_Model_</t>
-  </si>
-  <si>
-    <t>_SC_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Sid_Torso_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如沒有_SC_則編這張</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_H3_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Fin_Model_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SUBV_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SUPS_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Bex_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>三合一外套</t>
+    </r>
   </si>
   <si>
     <r>
@@ -237,7 +237,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>包包</t>
+      <t>襪子</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,7 +251,35 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>雙面外套</t>
+      <t>套裝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>對應角度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>直立正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,12 +289,13 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>三合一外套</t>
-    </r>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>白背上腳照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -278,7 +307,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>襪子</t>
+      <t>平拍正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,35 +321,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>套裝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>對應角度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>直立正面</t>
+      <t>平拍背面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,7 +335,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>白背上腳照</t>
+      <t>斜正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,7 +349,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>平拍正面</t>
+      <t>內層</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,7 +363,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>平拍背面</t>
+      <t>模特正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,7 +377,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>斜正面</t>
+      <t>模特側面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,7 +391,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>內層</t>
+      <t>模特內層</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,7 +405,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>模特正面</t>
+      <t>模特內層正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,158 +419,11 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>模特側面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>模特背面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>模特背面大圖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>模特內層</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>模特內層正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>模特內層背面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
       <t>襪子正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>套裝上身正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>套裝上身背面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>套裝下身正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>套裝下身背面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_Btp_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,92 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男女模特全身正面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男女模特半身正面,男女模特正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男女模特全身背面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男女模特半身背面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男女模特半身背面大圖,男女模特背面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>置中側面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,13 +462,127 @@
   <si>
     <t>_Fex_</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身平拍正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身平拍背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝下身平拍正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝下身平拍背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女模特正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女模特背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_D4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_D5_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H5_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HM1_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HM2_</t>
+  </si>
+  <si>
+    <t>_HM3_</t>
+  </si>
+  <si>
+    <t>_HM4_</t>
+  </si>
+  <si>
+    <t>_HM5_</t>
+  </si>
+  <si>
+    <t>_HM6_</t>
+  </si>
+  <si>
+    <t>_HM7_</t>
+  </si>
+  <si>
+    <t>_HM8_</t>
+  </si>
+  <si>
+    <t>_HM9_</t>
+  </si>
+  <si>
+    <t>_HM10_</t>
+  </si>
+  <si>
+    <t>HM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM2</t>
+  </si>
+  <si>
+    <t>HM3</t>
+  </si>
+  <si>
+    <t>HM4</t>
+  </si>
+  <si>
+    <t>HM5</t>
+  </si>
+  <si>
+    <t>HM6</t>
+  </si>
+  <si>
+    <t>HM7</t>
+  </si>
+  <si>
+    <t>HM8</t>
+  </si>
+  <si>
+    <t>HM9</t>
+  </si>
+  <si>
+    <t>HM10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -735,13 +617,6 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -797,12 +672,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -817,16 +698,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1045,16 +927,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" style="6"/>
-    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="12.6328125" style="6"/>
+    <col min="3" max="3" width="15.36328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -1065,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
@@ -1098,8 +981,8 @@
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="8" t="s">
-        <v>75</v>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -1116,7 +999,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -1133,7 +1016,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -1169,7 +1052,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -1178,7 +1061,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -1187,255 +1070,353 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="8" t="s">
-        <v>76</v>
+      <c r="A19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="A20" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>54</v>
+      <c r="A23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2"/>
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>70</v>
+      <c r="A37" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.5" customHeight="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664AACBA-B484-4D9C-B533-A675387C71AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A98BF3-27C8-4D61-9076-BFD92B7883F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1510" yWindow="330" windowWidth="19250" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>檔名判斷</t>
   </si>
@@ -220,12 +220,13 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>三合一外套</t>
-    </r>
+      <t>襪子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -237,7 +238,35 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>襪子</t>
+      <t>套裝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>對應角度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>直立正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,35 +280,35 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>套裝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>白背上腳照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>對應角度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>平拍正面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>直立正面</t>
+      <t>平拍背面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,7 +322,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>白背上腳照</t>
+      <t>斜正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,7 +336,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>平拍正面</t>
+      <t>模特正面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,7 +350,7 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>平拍背面</t>
+      <t>模特側面</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -335,8 +364,170 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>斜正面</t>
-    </r>
+      <t>襪子正面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Btp_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Ftp_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fbp_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Bbp_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置中側面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜光置中側面,夜光正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身平拍正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身平拍背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝下身平拍正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝下身平拍背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女模特正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男女模特背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_D4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_D5_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_H5_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HM1_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HM2_</t>
+  </si>
+  <si>
+    <t>_HM3_</t>
+  </si>
+  <si>
+    <t>_HM4_</t>
+  </si>
+  <si>
+    <t>_HM5_</t>
+  </si>
+  <si>
+    <t>_HM6_</t>
+  </si>
+  <si>
+    <t>_HM7_</t>
+  </si>
+  <si>
+    <t>_HM8_</t>
+  </si>
+  <si>
+    <t>_HM9_</t>
+  </si>
+  <si>
+    <t>_HM10_</t>
+  </si>
+  <si>
+    <t>HM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM2</t>
+  </si>
+  <si>
+    <t>HM3</t>
+  </si>
+  <si>
+    <t>HM4</t>
+  </si>
+  <si>
+    <t>HM5</t>
+  </si>
+  <si>
+    <t>HM6</t>
+  </si>
+  <si>
+    <t>HM7</t>
+  </si>
+  <si>
+    <t>HM8</t>
+  </si>
+  <si>
+    <t>HM9</t>
+  </si>
+  <si>
+    <t>HM10</t>
+  </si>
+  <si>
+    <t>模特內層正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三合一外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fex_Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -344,245 +535,41 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>雙面外套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>內層</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>模特正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>模特側面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
       </rPr>
       <t>模特內層</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>模特內層正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>襪子正面</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Btp_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Ftp_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Fbp_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Bbp_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>置中側面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜光置中側面,夜光正面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Fex_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模特背面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套裝上身平拍正面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套裝上身平拍背面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套裝下身平拍正面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套裝下身平拍背面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男女模特正面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男女模特背面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_D4_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_D5_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_H4_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_H5_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_HM1_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_HM2_</t>
-  </si>
-  <si>
-    <t>_HM3_</t>
-  </si>
-  <si>
-    <t>_HM4_</t>
-  </si>
-  <si>
-    <t>_HM5_</t>
-  </si>
-  <si>
-    <t>_HM6_</t>
-  </si>
-  <si>
-    <t>_HM7_</t>
-  </si>
-  <si>
-    <t>_HM8_</t>
-  </si>
-  <si>
-    <t>_HM9_</t>
-  </si>
-  <si>
-    <t>_HM10_</t>
-  </si>
-  <si>
-    <t>HM1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HM2</t>
-  </si>
-  <si>
-    <t>HM3</t>
-  </si>
-  <si>
-    <t>HM4</t>
-  </si>
-  <si>
-    <t>HM5</t>
-  </si>
-  <si>
-    <t>HM6</t>
-  </si>
-  <si>
-    <t>HM7</t>
-  </si>
-  <si>
-    <t>HM8</t>
-  </si>
-  <si>
-    <t>HM9</t>
-  </si>
-  <si>
-    <t>HM10</t>
+    <t>內層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙面外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙面外套內層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -658,18 +645,22 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -698,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,9 +697,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -930,8 +923,8 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44:C53"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -948,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
@@ -982,7 +975,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -999,7 +992,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -1016,7 +1009,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -1052,7 +1045,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -1061,7 +1054,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -1070,25 +1063,25 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -1096,7 +1089,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -1104,7 +1097,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
@@ -1112,23 +1105,23 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
@@ -1137,7 +1130,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
@@ -1154,7 +1147,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -1163,7 +1156,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1172,7 +1165,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
@@ -1180,7 +1173,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1192,7 +1185,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -1200,8 +1193,8 @@
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>54</v>
+      <c r="C30" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
@@ -1209,7 +1202,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
@@ -1217,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
@@ -1225,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -1234,7 +1227,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
@@ -1244,30 +1237,30 @@
       <c r="B35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>57</v>
+      <c r="C35" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>54</v>
+      <c r="B36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>58</v>
+        <v>100</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
@@ -1275,10 +1268,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
@@ -1286,135 +1279,135 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.5" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A98BF3-27C8-4D61-9076-BFD92B7883F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADB0EA-F238-6049-842A-747B38C0BB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
   <si>
     <t>檔名判斷</t>
   </si>
@@ -134,13 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_Fin_Torso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Fin_eCom</t>
-  </si>
-  <si>
     <t>_B_Model_</t>
   </si>
   <si>
@@ -210,20 +203,6 @@
         <charset val="136"/>
         <scheme val="major"/>
       </rPr>
-      <t>雙面外套</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="major"/>
-      </rPr>
       <t>襪子</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,18 +496,6 @@
   </si>
   <si>
     <t>HM10</t>
-  </si>
-  <si>
-    <t>模特內層正面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三合一外套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Fex_Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -557,11 +524,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>雙面外套內層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_eCom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_Torso_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fex_Model_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>雙面外套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雙面外套內層</t>
+    <t>模特內層正面,夜光正面,夜光置中側面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三合一外套(_Fin_eCom)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,15 +909,15 @@
   </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.6328125" style="6"/>
-    <col min="3" max="3" width="15.36328125" style="6" customWidth="1"/>
+    <col min="1" max="2" width="12.6640625" style="6"/>
+    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -941,7 +928,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
@@ -954,7 +941,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -975,7 +962,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -992,7 +979,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -1006,10 +993,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -1045,7 +1032,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -1054,7 +1041,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -1063,25 +1050,25 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -1089,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -1097,31 +1084,31 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
@@ -1130,7 +1117,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
@@ -1144,19 +1131,19 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -1165,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
@@ -1173,7 +1160,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -1182,74 +1169,74 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
@@ -1257,157 +1244,157 @@
         <v>100</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.5" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADB0EA-F238-6049-842A-747B38C0BB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E357CBF2-A02E-E042-A643-9F2991E4A8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>檔名判斷</t>
   </si>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套裝上身平拍正面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>套裝上身平拍背面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +492,69 @@
   </si>
   <si>
     <t>HM10</t>
+  </si>
+  <si>
+    <t>內層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_eCom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fin_Torso_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Fex_Model_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙面外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特內層正面,夜光正面,夜光置中側面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三合一外套</t>
+  </si>
+  <si>
+    <t>_Bex_Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特內層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身平拍正面,三合一外套內層正面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Sidex_Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特內層背面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模特內層側面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三合一外套(_Fin_eCom,_Ftp_)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FR_Torso</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FR_Model</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -504,51 +563,31 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
+        <charset val="136"/>
       </rPr>
-      <t>雙面外套</t>
+      <t>套裝</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="136"/>
+        <scheme val="major"/>
       </rPr>
-      <t>模特內層</t>
+      <t>_Btp_,_Fbp_,_Bbp_)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內層</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙面外套內層</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Fin_eCom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Fin_Torso_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_Fex_Model_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙面外套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模特內層正面,夜光正面,夜光置中側面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三合一外套(_Fin_eCom)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +683,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -659,7 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,19 +716,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -907,494 +975,552 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" style="6"/>
-    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3"/>
+    <col min="2" max="2" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="C61" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
+    <row r="63" spans="1:3" ht="15.5" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.5" customHeight="1">
-      <c r="A44" s="6" t="s">
+      <c r="C63" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C64" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A45" s="6" t="s">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C65" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A46" s="6" t="s">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C66" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A47" s="6" t="s">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C67" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A48" s="6" t="s">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C68" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="6" t="s">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C69" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="6" t="s">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C70" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="6" t="s">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C71" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="6" t="s">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C72" s="6" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85CC6AA-339B-5443-A994-671B5B8C2A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F08F1C2-8915-5B47-8778-4F77782F74F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="檔名角度對照表" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="DengXian Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -934,7 +934,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1483,7 +1483,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -1728,9 +1728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C2C77B-2893-6044-8984-E8AC02EFAB6F}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>

--- a/ADS檔名角度對照表.xlsx
+++ b/ADS檔名角度對照表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F05661-5B82-488F-986A-E830425AD66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65EE9F-E0F0-43D7-B7BA-9C3284BC7855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="150">
   <si>
     <t>_PK_</t>
   </si>
@@ -762,29 +762,6 @@
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
-      <t>套裝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(_Btp_,_Fbp_,_Bbp_)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>套裝上身平拍正面</t>
     </r>
     <r>
@@ -1301,6 +1278,33 @@
         <scheme val="minor"/>
       </rPr>
       <t>正面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_FR_Flat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>套裝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(_Btp_,_Fbp_,_Bbp_)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1309,7 +1313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1389,6 +1393,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1416,7 +1427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1444,6 +1455,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1663,11 +1677,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1765,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>84</v>
@@ -1820,7 +1834,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>92</v>
@@ -1828,7 +1842,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>93</v>
@@ -1836,7 +1850,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>93</v>
@@ -1844,7 +1858,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>94</v>
@@ -1868,339 +1882,347 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>107</v>
+        <v>25</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B59" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="4" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2249,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2277,12 +2299,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2293,11 +2315,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DBC44C-807D-5D43-AAE3-822F9A6EA3D6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2309,10 +2331,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,18 +2347,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,9 +2371,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2378,22 +2408,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2422,13 +2452,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,10 +2466,10 @@
         <v>73</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,10 +2477,10 @@
         <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2478,21 +2508,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8" t="b">
         <v>0</v>
